--- a/backend/incomes.xlsx
+++ b/backend/incomes.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,41 +422,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>cinema</v>
+        <v>💰</v>
       </c>
       <c r="B2" t="str">
-        <v>14</v>
+        <v>4500</v>
       </c>
       <c r="C2" t="str">
-        <v>debitcard</v>
+        <v>Salary NOV 2025</v>
       </c>
       <c r="D2" s="1">
-        <v>45968.48184872685</v>
+        <v>45974.498205868054</v>
       </c>
       <c r="E2" s="1">
-        <v>45968.48184872685</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>food</v>
-      </c>
-      <c r="B3" t="str">
-        <v>54.32</v>
-      </c>
-      <c r="C3" t="str">
-        <v>debitcard</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45968.4819244213</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45968.4819244213</v>
+        <v>45974.498205868054</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>